--- a/InputData/fuels/BS/BAU Subsidies.xlsx
+++ b/InputData/fuels/BS/BAU Subsidies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anaxolt/Google Drive/2021/D.Development/TARGET_eps-us-3.2.1/InputData/fuels/BS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-mexico\InputData\fuels\BS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47283564-C9CE-F141-9928-7CF6D05A847D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168F9436-1B42-429A-9E4F-424C0CAFBD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23860" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="18" r:id="rId1"/>
@@ -18,17 +18,19 @@
     <sheet name="MX Primary Energy Use" sheetId="20" r:id="rId3"/>
     <sheet name="MXCalculations" sheetId="21" r:id="rId4"/>
     <sheet name="BS-BSfTFpEUP" sheetId="10" r:id="rId5"/>
-    <sheet name="BS-BSpUEO" sheetId="11" r:id="rId6"/>
-    <sheet name="BS-BSpUECB" sheetId="16" r:id="rId7"/>
+    <sheet name="BS-BSpUEO-PreRet" sheetId="23" r:id="rId6"/>
+    <sheet name="BS-BSpUEO-PreNonRet" sheetId="22" r:id="rId7"/>
+    <sheet name="BS-BSpUEO-NewBlt" sheetId="11" r:id="rId8"/>
+    <sheet name="BS-BSpUECB" sheetId="16" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="dollars_2020_2012">#REF!</definedName>
     <definedName name="Preferences.EnergyUnits">[1]Preferences!$C$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="136">
   <si>
     <t>Source:</t>
   </si>
@@ -461,9 +463,9 @@
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0;;\-"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0_);\(#,##0.0\);&quot;-&quot;;@"/>
-    <numFmt numFmtId="169" formatCode="0.000E+00"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0;;\-"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0_);\(#,##0.0\);&quot;-&quot;;@"/>
+    <numFmt numFmtId="167" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -760,7 +762,7 @@
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -785,12 +787,12 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="13" fillId="5" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -806,7 +808,7 @@
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -838,162 +840,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Control"/>
-      <sheetName val="Structure of the model"/>
       <sheetName val="Preferences"/>
-      <sheetName val="Indicators"/>
-      <sheetName val="Intermediate output"/>
-      <sheetName val="Energy"/>
-      <sheetName val="Costs per capita"/>
-      <sheetName val="Costs"/>
-      <sheetName val="GHG"/>
-      <sheetName val="Electricity"/>
-      <sheetName val="Security"/>
-      <sheetName val="Land"/>
-      <sheetName val="Flows"/>
-      <sheetName val="Air Quality"/>
-      <sheetName val="Conversions"/>
-      <sheetName val="Global assumptions"/>
-      <sheetName val="Constants"/>
-      <sheetName val="A.a"/>
-      <sheetName val="I.a"/>
-      <sheetName val="I.b"/>
-      <sheetName val="II.a"/>
-      <sheetName val="III.a"/>
-      <sheetName val="III.b"/>
-      <sheetName val="III.c"/>
-      <sheetName val="III.d"/>
-      <sheetName val="III.e"/>
-      <sheetName val="IV.a"/>
-      <sheetName val="IV.b"/>
-      <sheetName val="V.a"/>
-      <sheetName val="V.b"/>
-      <sheetName val="VI.a"/>
-      <sheetName val="VI.b"/>
-      <sheetName val="VI.c"/>
-      <sheetName val="VII.a"/>
-      <sheetName val="VII.b"/>
-      <sheetName val="VII.c"/>
-      <sheetName val="VIII.a"/>
-      <sheetName val="Trayectorias"/>
-      <sheetName val="IX.a"/>
-      <sheetName val="IX.c"/>
-      <sheetName val="X.a"/>
-      <sheetName val="X.b"/>
-      <sheetName val="X.c"/>
-      <sheetName val="XI.a"/>
-      <sheetName val="XII.a"/>
-      <sheetName val="XII.b"/>
-      <sheetName val="XII.c"/>
-      <sheetName val="XII.d"/>
-      <sheetName val="XII.e"/>
-      <sheetName val="XIV.a"/>
-      <sheetName val="XV.a"/>
-      <sheetName val="XV.b"/>
-      <sheetName val="XVI.a"/>
-      <sheetName val="XVI.b"/>
-      <sheetName val="XVIII.a"/>
-      <sheetName val="2010 (SIE)"/>
-      <sheetName val="2010"/>
-      <sheetName val="2015"/>
-      <sheetName val="2020"/>
-      <sheetName val="2025"/>
-      <sheetName val="2030"/>
-      <sheetName val="2035"/>
-      <sheetName val="2040"/>
-      <sheetName val="2045"/>
-      <sheetName val="2050"/>
-      <sheetName val="SIE BNE 2010"/>
-      <sheetName val="INEGEI"/>
-      <sheetName val="EF-INECC-CMM"/>
-      <sheetName val="SENER Combustibles"/>
-      <sheetName val="Otros SIE 13 Industria"/>
-      <sheetName val="Otros SIE BNE varios"/>
-      <sheetName val="Otros SIE Electricidad"/>
-      <sheetName val="Otros SIE Consumo electrico"/>
-      <sheetName val="Otros Vivienda"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>PJ</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1324,24 +1174,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="12"/>
-    <col min="2" max="2" width="83.33203125" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="12"/>
+    <col min="1" max="1" width="8.85546875" style="12"/>
+    <col min="2" max="2" width="83.28515625" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1349,132 +1199,132 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>0.97099999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>32</v>
       </c>
@@ -1494,29 +1344,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="12" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="12"/>
+    <col min="1" max="1" width="11.140625" style="12" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="I3" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>85</v>
       </c>
@@ -1524,7 +1374,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>87</v>
       </c>
@@ -1553,7 +1403,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>89</v>
       </c>
@@ -1588,7 +1438,7 @@
         <v>706.05177600000002</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>89</v>
       </c>
@@ -1623,7 +1473,7 @@
         <v>8589.660672</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>89</v>
       </c>
@@ -1658,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>89</v>
       </c>
@@ -1693,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>89</v>
       </c>
@@ -1728,32 +1578,32 @@
         <v>9295.7122560000025</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>97</v>
       </c>
@@ -1769,14 +1619,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="12"/>
-    <col min="2" max="2" width="21.33203125" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="12"/>
+    <col min="1" max="1" width="8.85546875" style="12"/>
+    <col min="2" max="2" width="21.28515625" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>98</v>
       </c>
@@ -1791,7 +1641,7 @@
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -1806,7 +1656,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>100</v>
       </c>
@@ -1841,7 +1691,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
       <c r="B4" s="33" t="s">
         <v>91</v>
@@ -1874,7 +1724,7 @@
         <v>5355.0269385998099</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
       <c r="B5" s="33" t="s">
         <v>102</v>
@@ -1907,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="33"/>
       <c r="B6" s="33" t="s">
         <v>103</v>
@@ -1940,7 +1790,7 @@
         <v>3919.775952105947</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="33"/>
       <c r="B7" s="33" t="s">
         <v>104</v>
@@ -1973,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="33" t="s">
         <v>105</v>
@@ -2006,7 +1856,7 @@
         <v>816.30268693342407</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="33" t="s">
         <v>106</v>
@@ -2039,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="33"/>
       <c r="B10" s="33" t="s">
         <v>107</v>
@@ -2072,7 +1922,7 @@
         <v>826.66517253747497</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
       <c r="B11" s="33" t="s">
         <v>108</v>
@@ -2105,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>109</v>
       </c>
@@ -2140,7 +1990,7 @@
         <v>552.10154039999998</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>111</v>
       </c>
@@ -2175,7 +2025,7 @@
         <v>237.44337407999998</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>113</v>
       </c>
@@ -2210,7 +2060,7 @@
         <v>170.95148178432456</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>115</v>
       </c>
@@ -2245,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>117</v>
       </c>
@@ -2280,7 +2130,7 @@
         <v>1.4249999999999974</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>119</v>
       </c>
@@ -2315,7 +2165,7 @@
         <v>42.218819999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>121</v>
       </c>
@@ -2350,7 +2200,7 @@
         <v>227.76182207999994</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>123</v>
       </c>
@@ -2385,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
         <v>125</v>
       </c>
@@ -2420,7 +2270,7 @@
         <v>219.04321377595454</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
       <c r="B21" s="35" t="s">
         <v>127</v>
@@ -2464,16 +2314,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="12" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="12" customWidth="1"/>
     <col min="3" max="3" width="14" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="12"/>
+    <col min="4" max="4" width="11.85546875" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
@@ -2482,7 +2332,7 @@
         <v>947800000000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>129</v>
       </c>
@@ -2493,7 +2343,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>130</v>
       </c>
@@ -2506,7 +2356,7 @@
         <v>3189619035786591</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>36</v>
       </c>
@@ -2519,7 +2369,7 @@
         <v>2014864805705983.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>131</v>
       </c>
@@ -2533,7 +2383,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>130</v>
       </c>
@@ -2550,7 +2400,7 @@
         <v>3100000000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>36</v>
       </c>
@@ -2567,27 +2417,27 @@
         <v>600000000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>130</v>
       </c>
@@ -2596,7 +2446,7 @@
         <v>3.1494851951916474E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>36</v>
       </c>
@@ -2619,13 +2469,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="3"/>
+    <col min="1" max="1" width="26.7109375" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -2723,7 +2573,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2821,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
@@ -2921,7 +2771,7 @@
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -3052,7 +2902,7 @@
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -3150,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -3248,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -3346,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -3444,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -3544,7 +3394,7 @@
       <c r="AG9" s="10"/>
       <c r="AH9" s="10"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -3675,7 +3525,7 @@
       <c r="AG10" s="7"/>
       <c r="AH10" s="7"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -3806,7 +3656,7 @@
       <c r="AG11" s="7"/>
       <c r="AH11" s="7"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -3904,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -4002,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -4133,7 +3983,7 @@
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
@@ -4231,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
@@ -4329,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
@@ -4460,7 +4310,7 @@
       <c r="AG17" s="7"/>
       <c r="AH17" s="7"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>63</v>
       </c>
@@ -4560,7 +4410,7 @@
       <c r="AG18" s="7"/>
       <c r="AH18" s="7"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>64</v>
       </c>
@@ -4660,7 +4510,7 @@
       <c r="AG19" s="7"/>
       <c r="AH19" s="7"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>65</v>
       </c>
@@ -4758,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>66</v>
       </c>
@@ -4856,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>62</v>
       </c>
@@ -4960,20 +4810,3430 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516E1F45-E667-4D99-9A5F-E67BBE329EE7}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AH17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" style="12" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C1" s="12">
+        <v>2021</v>
+      </c>
+      <c r="D1" s="12">
+        <v>2022</v>
+      </c>
+      <c r="E1" s="12">
+        <v>2023</v>
+      </c>
+      <c r="F1" s="12">
+        <v>2024</v>
+      </c>
+      <c r="G1" s="12">
+        <v>2025</v>
+      </c>
+      <c r="H1" s="12">
+        <v>2026</v>
+      </c>
+      <c r="I1" s="12">
+        <v>2027</v>
+      </c>
+      <c r="J1" s="12">
+        <v>2028</v>
+      </c>
+      <c r="K1" s="12">
+        <v>2029</v>
+      </c>
+      <c r="L1" s="12">
+        <v>2030</v>
+      </c>
+      <c r="M1" s="12">
+        <v>2031</v>
+      </c>
+      <c r="N1" s="12">
+        <v>2032</v>
+      </c>
+      <c r="O1" s="12">
+        <v>2033</v>
+      </c>
+      <c r="P1" s="12">
+        <v>2034</v>
+      </c>
+      <c r="Q1" s="12">
+        <v>2035</v>
+      </c>
+      <c r="R1" s="12">
+        <v>2036</v>
+      </c>
+      <c r="S1" s="12">
+        <v>2037</v>
+      </c>
+      <c r="T1" s="12">
+        <v>2038</v>
+      </c>
+      <c r="U1" s="12">
+        <v>2039</v>
+      </c>
+      <c r="V1" s="12">
+        <v>2040</v>
+      </c>
+      <c r="W1" s="12">
+        <v>2041</v>
+      </c>
+      <c r="X1" s="12">
+        <v>2042</v>
+      </c>
+      <c r="Y1" s="12">
+        <v>2043</v>
+      </c>
+      <c r="Z1" s="12">
+        <v>2044</v>
+      </c>
+      <c r="AA1" s="12">
+        <v>2045</v>
+      </c>
+      <c r="AB1" s="12">
+        <v>2046</v>
+      </c>
+      <c r="AC1" s="12">
+        <v>2047</v>
+      </c>
+      <c r="AD1" s="12">
+        <v>2048</v>
+      </c>
+      <c r="AE1" s="12">
+        <v>2049</v>
+      </c>
+      <c r="AF1" s="12">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0</v>
+      </c>
+      <c r="R2" s="6">
+        <v>0</v>
+      </c>
+      <c r="S2" s="6">
+        <v>0</v>
+      </c>
+      <c r="T2" s="6">
+        <v>0</v>
+      </c>
+      <c r="U2" s="6">
+        <v>0</v>
+      </c>
+      <c r="V2" s="6">
+        <v>0</v>
+      </c>
+      <c r="W2" s="6">
+        <v>0</v>
+      </c>
+      <c r="X2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0</v>
+      </c>
+      <c r="O3" s="12">
+        <v>0</v>
+      </c>
+      <c r="P3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>0</v>
+      </c>
+      <c r="R3" s="12">
+        <v>0</v>
+      </c>
+      <c r="S3" s="12">
+        <v>0</v>
+      </c>
+      <c r="T3" s="12">
+        <v>0</v>
+      </c>
+      <c r="U3" s="12">
+        <v>0</v>
+      </c>
+      <c r="V3" s="12">
+        <v>0</v>
+      </c>
+      <c r="W3" s="12">
+        <v>0</v>
+      </c>
+      <c r="X3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0</v>
+      </c>
+      <c r="T5" s="6">
+        <v>0</v>
+      </c>
+      <c r="U5" s="6">
+        <v>0</v>
+      </c>
+      <c r="V5" s="6">
+        <v>0</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+      <c r="X5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0</v>
+      </c>
+      <c r="T6" s="6">
+        <v>0</v>
+      </c>
+      <c r="U6" s="6">
+        <v>0</v>
+      </c>
+      <c r="V6" s="6">
+        <v>0</v>
+      </c>
+      <c r="W6" s="6">
+        <v>0</v>
+      </c>
+      <c r="X6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0</v>
+      </c>
+      <c r="W7" s="9">
+        <v>0</v>
+      </c>
+      <c r="X7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0</v>
+      </c>
+      <c r="S8" s="9">
+        <v>0</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0</v>
+      </c>
+      <c r="V8" s="9">
+        <v>0</v>
+      </c>
+      <c r="W8" s="9">
+        <v>0</v>
+      </c>
+      <c r="X8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0</v>
+      </c>
+      <c r="T9" s="6">
+        <v>0</v>
+      </c>
+      <c r="U9" s="6">
+        <v>0</v>
+      </c>
+      <c r="V9" s="6">
+        <v>0</v>
+      </c>
+      <c r="W9" s="6">
+        <v>0</v>
+      </c>
+      <c r="X9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0</v>
+      </c>
+      <c r="O10" s="12">
+        <v>0</v>
+      </c>
+      <c r="P10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>0</v>
+      </c>
+      <c r="R10" s="12">
+        <v>0</v>
+      </c>
+      <c r="S10" s="12">
+        <v>0</v>
+      </c>
+      <c r="T10" s="12">
+        <v>0</v>
+      </c>
+      <c r="U10" s="12">
+        <v>0</v>
+      </c>
+      <c r="V10" s="12">
+        <v>0</v>
+      </c>
+      <c r="W10" s="12">
+        <v>0</v>
+      </c>
+      <c r="X10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0</v>
+      </c>
+      <c r="N11" s="12">
+        <v>0</v>
+      </c>
+      <c r="O11" s="12">
+        <v>0</v>
+      </c>
+      <c r="P11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>0</v>
+      </c>
+      <c r="R11" s="12">
+        <v>0</v>
+      </c>
+      <c r="S11" s="12">
+        <v>0</v>
+      </c>
+      <c r="T11" s="12">
+        <v>0</v>
+      </c>
+      <c r="U11" s="12">
+        <v>0</v>
+      </c>
+      <c r="V11" s="12">
+        <v>0</v>
+      </c>
+      <c r="W11" s="12">
+        <v>0</v>
+      </c>
+      <c r="X11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>0</v>
+      </c>
+      <c r="R12" s="12">
+        <v>0</v>
+      </c>
+      <c r="S12" s="12">
+        <v>0</v>
+      </c>
+      <c r="T12" s="12">
+        <v>0</v>
+      </c>
+      <c r="U12" s="12">
+        <v>0</v>
+      </c>
+      <c r="V12" s="12">
+        <v>0</v>
+      </c>
+      <c r="W12" s="12">
+        <v>0</v>
+      </c>
+      <c r="X12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
+        <v>0</v>
+      </c>
+      <c r="S13" s="6">
+        <v>0</v>
+      </c>
+      <c r="T13" s="6">
+        <v>0</v>
+      </c>
+      <c r="U13" s="6">
+        <v>0</v>
+      </c>
+      <c r="V13" s="6">
+        <v>0</v>
+      </c>
+      <c r="W13" s="6">
+        <v>0</v>
+      </c>
+      <c r="X13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6">
+        <v>0</v>
+      </c>
+      <c r="T14" s="6">
+        <v>0</v>
+      </c>
+      <c r="U14" s="6">
+        <v>0</v>
+      </c>
+      <c r="V14" s="6">
+        <v>0</v>
+      </c>
+      <c r="W14" s="6">
+        <v>0</v>
+      </c>
+      <c r="X14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0</v>
+      </c>
+      <c r="M15" s="12">
+        <v>0</v>
+      </c>
+      <c r="N15" s="12">
+        <v>0</v>
+      </c>
+      <c r="O15" s="12">
+        <v>0</v>
+      </c>
+      <c r="P15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>0</v>
+      </c>
+      <c r="R15" s="12">
+        <v>0</v>
+      </c>
+      <c r="S15" s="12">
+        <v>0</v>
+      </c>
+      <c r="T15" s="12">
+        <v>0</v>
+      </c>
+      <c r="U15" s="12">
+        <v>0</v>
+      </c>
+      <c r="V15" s="12">
+        <v>0</v>
+      </c>
+      <c r="W15" s="12">
+        <v>0</v>
+      </c>
+      <c r="X15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0</v>
+      </c>
+      <c r="M16" s="12">
+        <v>0</v>
+      </c>
+      <c r="N16" s="12">
+        <v>0</v>
+      </c>
+      <c r="O16" s="12">
+        <v>0</v>
+      </c>
+      <c r="P16" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>0</v>
+      </c>
+      <c r="R16" s="12">
+        <v>0</v>
+      </c>
+      <c r="S16" s="12">
+        <v>0</v>
+      </c>
+      <c r="T16" s="12">
+        <v>0</v>
+      </c>
+      <c r="U16" s="12">
+        <v>0</v>
+      </c>
+      <c r="V16" s="12">
+        <v>0</v>
+      </c>
+      <c r="W16" s="12">
+        <v>0</v>
+      </c>
+      <c r="X16" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0</v>
+      </c>
+      <c r="N17" s="12">
+        <v>0</v>
+      </c>
+      <c r="O17" s="12">
+        <v>0</v>
+      </c>
+      <c r="P17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>0</v>
+      </c>
+      <c r="R17" s="12">
+        <v>0</v>
+      </c>
+      <c r="S17" s="12">
+        <v>0</v>
+      </c>
+      <c r="T17" s="12">
+        <v>0</v>
+      </c>
+      <c r="U17" s="12">
+        <v>0</v>
+      </c>
+      <c r="V17" s="12">
+        <v>0</v>
+      </c>
+      <c r="W17" s="12">
+        <v>0</v>
+      </c>
+      <c r="X17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0494A05F-2EBC-40E7-AC7C-BAAD96482138}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AH17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" style="12" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C1" s="12">
+        <v>2021</v>
+      </c>
+      <c r="D1" s="12">
+        <v>2022</v>
+      </c>
+      <c r="E1" s="12">
+        <v>2023</v>
+      </c>
+      <c r="F1" s="12">
+        <v>2024</v>
+      </c>
+      <c r="G1" s="12">
+        <v>2025</v>
+      </c>
+      <c r="H1" s="12">
+        <v>2026</v>
+      </c>
+      <c r="I1" s="12">
+        <v>2027</v>
+      </c>
+      <c r="J1" s="12">
+        <v>2028</v>
+      </c>
+      <c r="K1" s="12">
+        <v>2029</v>
+      </c>
+      <c r="L1" s="12">
+        <v>2030</v>
+      </c>
+      <c r="M1" s="12">
+        <v>2031</v>
+      </c>
+      <c r="N1" s="12">
+        <v>2032</v>
+      </c>
+      <c r="O1" s="12">
+        <v>2033</v>
+      </c>
+      <c r="P1" s="12">
+        <v>2034</v>
+      </c>
+      <c r="Q1" s="12">
+        <v>2035</v>
+      </c>
+      <c r="R1" s="12">
+        <v>2036</v>
+      </c>
+      <c r="S1" s="12">
+        <v>2037</v>
+      </c>
+      <c r="T1" s="12">
+        <v>2038</v>
+      </c>
+      <c r="U1" s="12">
+        <v>2039</v>
+      </c>
+      <c r="V1" s="12">
+        <v>2040</v>
+      </c>
+      <c r="W1" s="12">
+        <v>2041</v>
+      </c>
+      <c r="X1" s="12">
+        <v>2042</v>
+      </c>
+      <c r="Y1" s="12">
+        <v>2043</v>
+      </c>
+      <c r="Z1" s="12">
+        <v>2044</v>
+      </c>
+      <c r="AA1" s="12">
+        <v>2045</v>
+      </c>
+      <c r="AB1" s="12">
+        <v>2046</v>
+      </c>
+      <c r="AC1" s="12">
+        <v>2047</v>
+      </c>
+      <c r="AD1" s="12">
+        <v>2048</v>
+      </c>
+      <c r="AE1" s="12">
+        <v>2049</v>
+      </c>
+      <c r="AF1" s="12">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0</v>
+      </c>
+      <c r="R2" s="6">
+        <v>0</v>
+      </c>
+      <c r="S2" s="6">
+        <v>0</v>
+      </c>
+      <c r="T2" s="6">
+        <v>0</v>
+      </c>
+      <c r="U2" s="6">
+        <v>0</v>
+      </c>
+      <c r="V2" s="6">
+        <v>0</v>
+      </c>
+      <c r="W2" s="6">
+        <v>0</v>
+      </c>
+      <c r="X2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0</v>
+      </c>
+      <c r="O3" s="12">
+        <v>0</v>
+      </c>
+      <c r="P3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>0</v>
+      </c>
+      <c r="R3" s="12">
+        <v>0</v>
+      </c>
+      <c r="S3" s="12">
+        <v>0</v>
+      </c>
+      <c r="T3" s="12">
+        <v>0</v>
+      </c>
+      <c r="U3" s="12">
+        <v>0</v>
+      </c>
+      <c r="V3" s="12">
+        <v>0</v>
+      </c>
+      <c r="W3" s="12">
+        <v>0</v>
+      </c>
+      <c r="X3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0</v>
+      </c>
+      <c r="T5" s="6">
+        <v>0</v>
+      </c>
+      <c r="U5" s="6">
+        <v>0</v>
+      </c>
+      <c r="V5" s="6">
+        <v>0</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+      <c r="X5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0</v>
+      </c>
+      <c r="T6" s="6">
+        <v>0</v>
+      </c>
+      <c r="U6" s="6">
+        <v>0</v>
+      </c>
+      <c r="V6" s="6">
+        <v>0</v>
+      </c>
+      <c r="W6" s="6">
+        <v>0</v>
+      </c>
+      <c r="X6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0</v>
+      </c>
+      <c r="T7" s="9">
+        <v>0</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0</v>
+      </c>
+      <c r="W7" s="9">
+        <v>0</v>
+      </c>
+      <c r="X7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0</v>
+      </c>
+      <c r="S8" s="9">
+        <v>0</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0</v>
+      </c>
+      <c r="V8" s="9">
+        <v>0</v>
+      </c>
+      <c r="W8" s="9">
+        <v>0</v>
+      </c>
+      <c r="X8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0</v>
+      </c>
+      <c r="T9" s="6">
+        <v>0</v>
+      </c>
+      <c r="U9" s="6">
+        <v>0</v>
+      </c>
+      <c r="V9" s="6">
+        <v>0</v>
+      </c>
+      <c r="W9" s="6">
+        <v>0</v>
+      </c>
+      <c r="X9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0</v>
+      </c>
+      <c r="O10" s="12">
+        <v>0</v>
+      </c>
+      <c r="P10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>0</v>
+      </c>
+      <c r="R10" s="12">
+        <v>0</v>
+      </c>
+      <c r="S10" s="12">
+        <v>0</v>
+      </c>
+      <c r="T10" s="12">
+        <v>0</v>
+      </c>
+      <c r="U10" s="12">
+        <v>0</v>
+      </c>
+      <c r="V10" s="12">
+        <v>0</v>
+      </c>
+      <c r="W10" s="12">
+        <v>0</v>
+      </c>
+      <c r="X10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0</v>
+      </c>
+      <c r="N11" s="12">
+        <v>0</v>
+      </c>
+      <c r="O11" s="12">
+        <v>0</v>
+      </c>
+      <c r="P11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>0</v>
+      </c>
+      <c r="R11" s="12">
+        <v>0</v>
+      </c>
+      <c r="S11" s="12">
+        <v>0</v>
+      </c>
+      <c r="T11" s="12">
+        <v>0</v>
+      </c>
+      <c r="U11" s="12">
+        <v>0</v>
+      </c>
+      <c r="V11" s="12">
+        <v>0</v>
+      </c>
+      <c r="W11" s="12">
+        <v>0</v>
+      </c>
+      <c r="X11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="12">
+        <v>0</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>0</v>
+      </c>
+      <c r="R12" s="12">
+        <v>0</v>
+      </c>
+      <c r="S12" s="12">
+        <v>0</v>
+      </c>
+      <c r="T12" s="12">
+        <v>0</v>
+      </c>
+      <c r="U12" s="12">
+        <v>0</v>
+      </c>
+      <c r="V12" s="12">
+        <v>0</v>
+      </c>
+      <c r="W12" s="12">
+        <v>0</v>
+      </c>
+      <c r="X12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
+        <v>0</v>
+      </c>
+      <c r="S13" s="6">
+        <v>0</v>
+      </c>
+      <c r="T13" s="6">
+        <v>0</v>
+      </c>
+      <c r="U13" s="6">
+        <v>0</v>
+      </c>
+      <c r="V13" s="6">
+        <v>0</v>
+      </c>
+      <c r="W13" s="6">
+        <v>0</v>
+      </c>
+      <c r="X13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6">
+        <v>0</v>
+      </c>
+      <c r="T14" s="6">
+        <v>0</v>
+      </c>
+      <c r="U14" s="6">
+        <v>0</v>
+      </c>
+      <c r="V14" s="6">
+        <v>0</v>
+      </c>
+      <c r="W14" s="6">
+        <v>0</v>
+      </c>
+      <c r="X14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0</v>
+      </c>
+      <c r="M15" s="12">
+        <v>0</v>
+      </c>
+      <c r="N15" s="12">
+        <v>0</v>
+      </c>
+      <c r="O15" s="12">
+        <v>0</v>
+      </c>
+      <c r="P15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>0</v>
+      </c>
+      <c r="R15" s="12">
+        <v>0</v>
+      </c>
+      <c r="S15" s="12">
+        <v>0</v>
+      </c>
+      <c r="T15" s="12">
+        <v>0</v>
+      </c>
+      <c r="U15" s="12">
+        <v>0</v>
+      </c>
+      <c r="V15" s="12">
+        <v>0</v>
+      </c>
+      <c r="W15" s="12">
+        <v>0</v>
+      </c>
+      <c r="X15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0</v>
+      </c>
+      <c r="M16" s="12">
+        <v>0</v>
+      </c>
+      <c r="N16" s="12">
+        <v>0</v>
+      </c>
+      <c r="O16" s="12">
+        <v>0</v>
+      </c>
+      <c r="P16" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>0</v>
+      </c>
+      <c r="R16" s="12">
+        <v>0</v>
+      </c>
+      <c r="S16" s="12">
+        <v>0</v>
+      </c>
+      <c r="T16" s="12">
+        <v>0</v>
+      </c>
+      <c r="U16" s="12">
+        <v>0</v>
+      </c>
+      <c r="V16" s="12">
+        <v>0</v>
+      </c>
+      <c r="W16" s="12">
+        <v>0</v>
+      </c>
+      <c r="X16" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
+        <v>0</v>
+      </c>
+      <c r="N17" s="12">
+        <v>0</v>
+      </c>
+      <c r="O17" s="12">
+        <v>0</v>
+      </c>
+      <c r="P17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>0</v>
+      </c>
+      <c r="R17" s="12">
+        <v>0</v>
+      </c>
+      <c r="S17" s="12">
+        <v>0</v>
+      </c>
+      <c r="T17" s="12">
+        <v>0</v>
+      </c>
+      <c r="U17" s="12">
+        <v>0</v>
+      </c>
+      <c r="V17" s="12">
+        <v>0</v>
+      </c>
+      <c r="W17" s="12">
+        <v>0</v>
+      </c>
+      <c r="X17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -5073,7 +8333,7 @@
       <c r="AG1" s="4"/>
       <c r="AH1" s="4"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -5173,7 +8433,7 @@
       <c r="AG2" s="6"/>
       <c r="AH2" s="6"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -5275,7 +8535,7 @@
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -5375,7 +8635,7 @@
       <c r="AG4" s="6"/>
       <c r="AH4" s="6"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -5475,7 +8735,7 @@
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -5575,7 +8835,7 @@
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -5675,7 +8935,7 @@
       <c r="AG7" s="9"/>
       <c r="AH7" s="9"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -5775,7 +9035,7 @@
       <c r="AG8" s="9"/>
       <c r="AH8" s="9"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -5875,7 +9135,7 @@
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -5975,7 +9235,7 @@
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -6075,7 +9335,7 @@
       <c r="AG11" s="4"/>
       <c r="AH11" s="4"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -6175,7 +9435,7 @@
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -6275,7 +9535,7 @@
       <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -6375,7 +9635,7 @@
       <c r="AG14" s="6"/>
       <c r="AH14" s="6"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -6475,7 +9735,7 @@
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -6575,7 +9835,7 @@
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -6680,7 +9940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -6689,12 +9949,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -6794,7 +10054,7 @@
       <c r="AG1" s="4"/>
       <c r="AH1" s="4"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>49</v>
       </c>
@@ -6894,7 +10154,7 @@
       <c r="AG2" s="8"/>
       <c r="AH2" s="8"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>50</v>
       </c>
@@ -6994,7 +10254,7 @@
       <c r="AG3" s="8"/>
       <c r="AH3" s="8"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
@@ -7094,7 +10354,7 @@
       <c r="AG4" s="8"/>
       <c r="AH4" s="8"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
@@ -7194,7 +10454,7 @@
       <c r="AG5" s="8"/>
       <c r="AH5" s="8"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
@@ -7294,7 +10554,7 @@
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>54</v>
       </c>
@@ -7394,7 +10654,7 @@
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
@@ -7494,7 +10754,7 @@
       <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>56</v>
       </c>
@@ -7594,7 +10854,7 @@
       <c r="AG9" s="8"/>
       <c r="AH9" s="8"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>57</v>
       </c>
@@ -7694,7 +10954,7 @@
       <c r="AG10" s="8"/>
       <c r="AH10" s="8"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>58</v>
       </c>
@@ -7794,7 +11054,7 @@
       <c r="AG11" s="8"/>
       <c r="AH11" s="8"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
@@ -7894,7 +11154,7 @@
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>60</v>
       </c>
@@ -7994,7 +11254,7 @@
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>61</v>
       </c>
@@ -8094,7 +11354,7 @@
       <c r="AG14" s="8"/>
       <c r="AH14" s="8"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -8194,7 +11454,7 @@
       <c r="AG15" s="8"/>
       <c r="AH15" s="8"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -8294,7 +11554,7 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>69</v>
       </c>
